--- a/horario.xlsx
+++ b/horario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jazz_\Documents\GitHub\ZoomTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828710DB-7B7A-4864-81E9-22AFE1627B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F613971F-6A62-4F6E-88CB-C0BE75254D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Lunes</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>https//:algo.algo</t>
+  </si>
+  <si>
+    <t> https://zoom.us/j/99291224897?pwd=ZUh1MzNLWUdEY1hvNm1MR1RUaHNZZz09</t>
+  </si>
+  <si>
+    <t>prueba</t>
   </si>
 </sst>
 </file>
@@ -210,7 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -240,6 +246,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -523,16 +533,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -590,8 +600,12 @@
       <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
+      <c r="A2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -603,7 +617,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="N2" s="5"/>
     </row>
@@ -624,7 +638,7 @@
       <c r="L3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="12">
         <v>0.375</v>
       </c>
       <c r="N3" s="2"/>
@@ -686,9 +700,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://zoom.us/j/99291224897?pwd=ZUh1MzNLWUdEY1hvNm1MR1RUaHNZZz09" xr:uid="{DABD9791-3428-4218-9354-55BBD3C488C6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
 </worksheet>
 </file>
--- a/horario.xlsx
+++ b/horario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jazz_\Documents\GitHub\ZoomTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F613971F-6A62-4F6E-88CB-C0BE75254D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D455E80-F843-4CCE-927E-4D23B53A168B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,7 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -233,9 +233,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -250,6 +247,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -536,7 +539,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,52 +561,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9"/>
+      <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="5"/>
@@ -616,8 +619,8 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="6">
-        <v>0.14583333333333334</v>
+      <c r="M2" s="12">
+        <v>0.16319444444444445</v>
       </c>
       <c r="N2" s="5"/>
     </row>
@@ -638,7 +641,7 @@
       <c r="L3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="11">
         <v>0.375</v>
       </c>
       <c r="N3" s="2"/>
@@ -696,14 +699,15 @@
       <c r="N5" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E7" s="10"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="E9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
+      <c r="B10" s="9"/>
+      <c r="L10" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
